--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,19 +499,19 @@
         <v>0.01</v>
       </c>
       <c r="E2" t="n">
-        <v>344.458</v>
+        <v>343.935</v>
       </c>
       <c r="F2" t="n">
-        <v>0.501</v>
+        <v>0.538</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.059</v>
+        <v>-0.018</v>
       </c>
       <c r="H2" t="n">
-        <v>18.769</v>
+        <v>18.129</v>
       </c>
       <c r="I2" t="n">
-        <v>19.51</v>
+        <v>18.867</v>
       </c>
     </row>
     <row r="3">
@@ -532,19 +532,19 @@
         <v>0.001</v>
       </c>
       <c r="E3" t="n">
-        <v>362.248</v>
+        <v>262.502</v>
       </c>
       <c r="F3" t="n">
-        <v>0.499</v>
+        <v>0.657</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.016</v>
+        <v>-0.052</v>
       </c>
       <c r="H3" t="n">
-        <v>18.805</v>
+        <v>15.63</v>
       </c>
       <c r="I3" t="n">
-        <v>19.966</v>
+        <v>20.503</v>
       </c>
     </row>
     <row r="4">
@@ -565,19 +565,19 @@
         <v>0.01</v>
       </c>
       <c r="E4" t="n">
-        <v>307.719</v>
+        <v>262.265</v>
       </c>
       <c r="F4" t="n">
-        <v>0.597</v>
+        <v>0.652</v>
       </c>
       <c r="G4" t="n">
-        <v>0.213</v>
+        <v>0.187</v>
       </c>
       <c r="H4" t="n">
-        <v>16.893</v>
+        <v>15.697</v>
       </c>
       <c r="I4" t="n">
-        <v>17.958</v>
+        <v>18.816</v>
       </c>
     </row>
     <row r="5">
@@ -598,19 +598,19 @@
         <v>0.001</v>
       </c>
       <c r="E5" t="n">
-        <v>295.688</v>
+        <v>203.119</v>
       </c>
       <c r="F5" t="n">
-        <v>0.652</v>
+        <v>0.722</v>
       </c>
       <c r="G5" t="n">
-        <v>0.132</v>
+        <v>0.026</v>
       </c>
       <c r="H5" t="n">
-        <v>15.707</v>
+        <v>13.956</v>
       </c>
       <c r="I5" t="n">
-        <v>18.806</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="6">
@@ -631,19 +631,19 @@
         <v>0.01</v>
       </c>
       <c r="E6" t="n">
-        <v>347.611</v>
+        <v>256.101</v>
       </c>
       <c r="F6" t="n">
-        <v>0.633</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.227</v>
+        <v>0.191</v>
       </c>
       <c r="H6" t="n">
-        <v>16.125</v>
+        <v>14.802</v>
       </c>
       <c r="I6" t="n">
-        <v>17.878</v>
+        <v>18.684</v>
       </c>
     </row>
     <row r="7">
@@ -664,19 +664,19 @@
         <v>0.001</v>
       </c>
       <c r="E7" t="n">
-        <v>214.321</v>
+        <v>191.853</v>
       </c>
       <c r="F7" t="n">
-        <v>0.723</v>
+        <v>0.758</v>
       </c>
       <c r="G7" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>13.917</v>
+        <v>13.041</v>
       </c>
       <c r="I7" t="n">
-        <v>17.941</v>
+        <v>18.398</v>
       </c>
     </row>
     <row r="8">
@@ -697,19 +697,19 @@
         <v>0.01</v>
       </c>
       <c r="E8" t="n">
-        <v>346.731</v>
+        <v>219.015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.542</v>
+        <v>0.728</v>
       </c>
       <c r="G8" t="n">
-        <v>0.194</v>
+        <v>0.247</v>
       </c>
       <c r="H8" t="n">
-        <v>17.953</v>
+        <v>13.912</v>
       </c>
       <c r="I8" t="n">
-        <v>18.899</v>
+        <v>17.568</v>
       </c>
     </row>
     <row r="9">
@@ -730,19 +730,85 @@
         <v>0.001</v>
       </c>
       <c r="E9" t="n">
-        <v>164.777</v>
+        <v>161.588</v>
       </c>
       <c r="F9" t="n">
-        <v>0.78</v>
+        <v>0.785</v>
       </c>
       <c r="G9" t="n">
-        <v>0.228</v>
+        <v>0.257</v>
       </c>
       <c r="H9" t="n">
-        <v>12.367</v>
+        <v>12.235</v>
       </c>
       <c r="I9" t="n">
-        <v>16.407</v>
+        <v>17.402</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>6</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E10" t="n">
+        <v>758.135</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.016</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.596</v>
+      </c>
+      <c r="H10" t="n">
+        <v>26.935</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E11" t="n">
+        <v>166.872</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.258</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16.354</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="9660" windowWidth="16095" xWindow="240" yWindow="15"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,16 +16,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +33,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,25 +41,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
@@ -426,56 +412,66 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>molecule</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>test</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>num_layers</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>learning_rate</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>graph_readout</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>molecules_combination</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>training_loss</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
         <is>
           <t>r2_train</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>rmse_train</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>r2_test</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>rmse_train</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>rmse_test</t>
         </is>
@@ -498,20 +494,30 @@
       <c r="D2" t="n">
         <v>0.01</v>
       </c>
-      <c r="E2" t="n">
-        <v>343.935</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.538</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G2" t="n">
-        <v>-0.018</v>
+        <v>317.057</v>
       </c>
       <c r="H2" t="n">
-        <v>18.129</v>
+        <v>0.594</v>
       </c>
       <c r="I2" t="n">
-        <v>18.867</v>
+        <v>16.944</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.169</v>
+      </c>
+      <c r="K2" t="n">
+        <v>19.296</v>
       </c>
     </row>
     <row r="3">
@@ -529,22 +535,32 @@
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E3" t="n">
-        <v>262.502</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.657</v>
+        <v>0.01</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
       </c>
       <c r="G3" t="n">
-        <v>-0.052</v>
+        <v>468.101</v>
       </c>
       <c r="H3" t="n">
-        <v>15.63</v>
+        <v>0.392</v>
       </c>
       <c r="I3" t="n">
-        <v>20.503</v>
+        <v>20.791</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-0.103</v>
+      </c>
+      <c r="K3" t="n">
+        <v>22.031</v>
       </c>
     </row>
     <row r="4">
@@ -559,25 +575,35 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0.01</v>
       </c>
-      <c r="E4" t="n">
-        <v>262.265</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.652</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G4" t="n">
-        <v>0.187</v>
+        <v>311.887</v>
       </c>
       <c r="H4" t="n">
-        <v>15.697</v>
+        <v>0.583</v>
       </c>
       <c r="I4" t="n">
-        <v>18.816</v>
+        <v>17.184</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="K4" t="n">
+        <v>19.503</v>
       </c>
     </row>
     <row r="5">
@@ -592,25 +618,35 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E5" t="n">
-        <v>203.119</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.722</v>
+        <v>0.01</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
       </c>
       <c r="G5" t="n">
-        <v>0.026</v>
+        <v>572.505</v>
       </c>
       <c r="H5" t="n">
-        <v>13.956</v>
+        <v>0.233</v>
       </c>
       <c r="I5" t="n">
-        <v>18.196</v>
+        <v>23.442</v>
+      </c>
+      <c r="J5" t="n">
+        <v>-0.292</v>
+      </c>
+      <c r="K5" t="n">
+        <v>25.032</v>
       </c>
     </row>
     <row r="6">
@@ -625,25 +661,35 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>0.01</v>
       </c>
-      <c r="E6" t="n">
-        <v>256.101</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.6919999999999999</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
       <c r="G6" t="n">
-        <v>0.191</v>
+        <v>286.977</v>
       </c>
       <c r="H6" t="n">
-        <v>14.802</v>
+        <v>0.623</v>
       </c>
       <c r="I6" t="n">
-        <v>18.684</v>
+        <v>16.355</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.227</v>
+      </c>
+      <c r="K6" t="n">
+        <v>18.732</v>
       </c>
     </row>
     <row r="7">
@@ -658,25 +704,35 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E7" t="n">
-        <v>191.853</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.758</v>
+        <v>0.01</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>321.458</v>
       </c>
       <c r="H7" t="n">
-        <v>13.041</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>18.398</v>
+        <v>17.62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.247</v>
+      </c>
+      <c r="K7" t="n">
+        <v>18.597</v>
       </c>
     </row>
     <row r="8">
@@ -691,25 +747,35 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>0.01</v>
       </c>
-      <c r="E8" t="n">
-        <v>219.015</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.728</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
       </c>
       <c r="G8" t="n">
-        <v>0.247</v>
+        <v>1820.655</v>
       </c>
       <c r="H8" t="n">
-        <v>13.912</v>
+        <v>-1.516</v>
       </c>
       <c r="I8" t="n">
-        <v>17.568</v>
+        <v>42.453</v>
+      </c>
+      <c r="J8" t="n">
+        <v>-1.902</v>
+      </c>
+      <c r="K8" t="n">
+        <v>41.648</v>
       </c>
     </row>
     <row r="9">
@@ -724,25 +790,35 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E9" t="n">
-        <v>161.588</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.785</v>
+        <v>0.01</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
       </c>
       <c r="G9" t="n">
-        <v>0.257</v>
+        <v>332.594</v>
       </c>
       <c r="H9" t="n">
-        <v>12.235</v>
+        <v>0.548</v>
       </c>
       <c r="I9" t="n">
-        <v>17.402</v>
+        <v>17.872</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18.591</v>
       </c>
     </row>
     <row r="10">
@@ -757,25 +833,35 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>0.01</v>
       </c>
-      <c r="E10" t="n">
-        <v>758.135</v>
-      </c>
-      <c r="F10" t="n">
-        <v>-0.016</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>-0.596</v>
+        <v>242.775</v>
       </c>
       <c r="H10" t="n">
-        <v>26.935</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="I10" t="n">
-        <v>27.577</v>
+        <v>14.896</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K10" t="n">
+        <v>17.618</v>
       </c>
     </row>
     <row r="11">
@@ -790,28 +876,1285 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>260.051</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="I11" t="n">
+        <v>14.134</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="K11" t="n">
+        <v>15.944</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>250.299</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I12" t="n">
+        <v>15.317</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.201</v>
+      </c>
+      <c r="K12" t="n">
+        <v>18.011</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.001</v>
       </c>
-      <c r="E11" t="n">
-        <v>166.872</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.786</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.336</v>
-      </c>
-      <c r="H11" t="n">
-        <v>12.258</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16.354</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>274.83</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="I13" t="n">
+        <v>16.154</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="K13" t="n">
+        <v>18.907</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>212.143</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="I14" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="K14" t="n">
+        <v>17.782</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>2</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>341.831</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.542</v>
+      </c>
+      <c r="I15" t="n">
+        <v>18.054</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.081</v>
+      </c>
+      <c r="K15" t="n">
+        <v>19.735</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>279.39</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="I16" t="n">
+        <v>16.455</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19.24</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>223.219</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.701</v>
+      </c>
+      <c r="I17" t="n">
+        <v>14.523</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="K17" t="n">
+        <v>18.451</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>348.61</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.492</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19.122</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>282.59</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.612</v>
+      </c>
+      <c r="I19" t="n">
+        <v>16.656</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K19" t="n">
+        <v>18.248</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>212.304</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.722</v>
+      </c>
+      <c r="I20" t="n">
+        <v>13.999</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="K20" t="n">
+        <v>17.679</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>299.496</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.592</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17.022</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.502</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>345.104</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="I22" t="n">
+        <v>17.739</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.164</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18.659</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>237.707</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.672</v>
+      </c>
+      <c r="I23" t="n">
+        <v>15.26</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K23" t="n">
+        <v>18.466</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>3</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>333.218</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="I24" t="n">
+        <v>17.656</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="K24" t="n">
+        <v>19.086</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>257.638</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="I25" t="n">
+        <v>15.371</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="K25" t="n">
+        <v>17.352</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>172.292</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.781</v>
+      </c>
+      <c r="I26" t="n">
+        <v>12.374</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="K26" t="n">
+        <v>16.384</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>223.453</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.698</v>
+      </c>
+      <c r="I27" t="n">
+        <v>14.61</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="K27" t="n">
+        <v>18.321</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>3</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>220.087</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I28" t="n">
+        <v>14.215</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="K28" t="n">
+        <v>18.686</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>25981.151</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.155</v>
+      </c>
+      <c r="I29" t="n">
+        <v>28.709</v>
+      </c>
+      <c r="J29" t="n">
+        <v>-0.514</v>
+      </c>
+      <c r="K29" t="n">
+        <v>28.738</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>3</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>216.065</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="I30" t="n">
+        <v>14.257</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.289</v>
+      </c>
+      <c r="K30" t="n">
+        <v>17.356</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>3</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>243.178</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I31" t="n">
+        <v>15.281</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.313</v>
+      </c>
+      <c r="K31" t="n">
+        <v>17.974</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>178.88</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I32" t="n">
+        <v>12.805</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="K32" t="n">
+        <v>17.026</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>3</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>256.031</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="I33" t="n">
+        <v>15.579</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="K33" t="n">
+        <v>17.951</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>256.344</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="I34" t="n">
+        <v>15.521</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="K34" t="n">
+        <v>18.599</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>3</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>201.124</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="I35" t="n">
+        <v>13.473</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="K35" t="n">
+        <v>17.941</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>3</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>328.373</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.548</v>
+      </c>
+      <c r="I36" t="n">
+        <v>17.873</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="K36" t="n">
+        <v>18.452</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>3</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
+        <v>243.905</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.674</v>
+      </c>
+      <c r="I37" t="n">
+        <v>15.206</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="K37" t="n">
+        <v>17.59</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>3</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>180.602</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.757</v>
+      </c>
+      <c r="I38" t="n">
+        <v>13.078</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="K38" t="n">
+        <v>15.136</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>3</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>263.356</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="I39" t="n">
+        <v>15.903</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="K39" t="n">
+        <v>17.968</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>4</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>435.588</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.438</v>
+      </c>
+      <c r="I40" t="n">
+        <v>20.076</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="K40" t="n">
+        <v>20.287</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2154,6 +2154,1640 @@
         <v>20.287</v>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>4</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>631.8339999999999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="I41" t="n">
+        <v>24.408</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="K41" t="n">
+        <v>25.212</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>4</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>397.077</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="I42" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="K42" t="n">
+        <v>20.796</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>4</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>338.374</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.579</v>
+      </c>
+      <c r="I43" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="K43" t="n">
+        <v>18.601</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>4</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G44" t="n">
+        <v>248.464</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="I44" t="n">
+        <v>15.052</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K44" t="n">
+        <v>18.976</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>4</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G45" t="n">
+        <v>221.274</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I45" t="n">
+        <v>14.337</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="K45" t="n">
+        <v>18.289</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>4</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>344.414</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="I46" t="n">
+        <v>17.01</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="K46" t="n">
+        <v>18.056</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>4</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G47" t="n">
+        <v>218.809</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="I47" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J47" t="n">
+        <v>0.287</v>
+      </c>
+      <c r="K47" t="n">
+        <v>17.81</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>4</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G48" t="n">
+        <v>243.411</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="I48" t="n">
+        <v>15.14</v>
+      </c>
+      <c r="J48" t="n">
+        <v>0.183</v>
+      </c>
+      <c r="K48" t="n">
+        <v>18.441</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>4</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G49" t="n">
+        <v>215.219</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I49" t="n">
+        <v>14.354</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0.322</v>
+      </c>
+      <c r="K49" t="n">
+        <v>17.423</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>4</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G50" t="n">
+        <v>217.007</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.705</v>
+      </c>
+      <c r="I50" t="n">
+        <v>14.435</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="K50" t="n">
+        <v>17.661</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>4</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>226.492</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I51" t="n">
+        <v>14.668</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="K51" t="n">
+        <v>17.881</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>4</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>165.726</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="I52" t="n">
+        <v>12.193</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="K52" t="n">
+        <v>18.052</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>237.843</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="I53" t="n">
+        <v>15.089</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="K53" t="n">
+        <v>17.746</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>4</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>215.023</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14.354</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="K54" t="n">
+        <v>18.297</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>4</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>175.93</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="I55" t="n">
+        <v>12.737</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0.271</v>
+      </c>
+      <c r="K55" t="n">
+        <v>18.387</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>4</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>240.39</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="I56" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="J56" t="n">
+        <v>0.198</v>
+      </c>
+      <c r="K56" t="n">
+        <v>18.584</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>4</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>214.795</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I57" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="K57" t="n">
+        <v>18.088</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>156.703</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="I58" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0.443</v>
+      </c>
+      <c r="K58" t="n">
+        <v>15.483</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>227.327</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.6909999999999999</v>
+      </c>
+      <c r="I59" t="n">
+        <v>14.726</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="K59" t="n">
+        <v>17.653</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>5</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>381.178</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="I60" t="n">
+        <v>19.166</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="K60" t="n">
+        <v>20.657</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>5</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1129.787</v>
+      </c>
+      <c r="H61" t="n">
+        <v>-0.573</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33.425</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1.499</v>
+      </c>
+      <c r="K61" t="n">
+        <v>34.492</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>214.32</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14.227</v>
+      </c>
+      <c r="J62" t="n">
+        <v>0.181</v>
+      </c>
+      <c r="K62" t="n">
+        <v>19.155</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>5</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>220.162</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14.201</v>
+      </c>
+      <c r="J63" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="K63" t="n">
+        <v>18.573</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>5</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>436.764</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="I64" t="n">
+        <v>19.703</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0.163</v>
+      </c>
+      <c r="K64" t="n">
+        <v>19.645</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>5</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>216.428</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I65" t="n">
+        <v>14.203</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0.304</v>
+      </c>
+      <c r="K65" t="n">
+        <v>17.991</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>5</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>211.714</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I66" t="n">
+        <v>14.227</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0.349</v>
+      </c>
+      <c r="K66" t="n">
+        <v>16.89</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>5</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>215.489</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.732</v>
+      </c>
+      <c r="I67" t="n">
+        <v>13.73</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="K67" t="n">
+        <v>15.163</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>5</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>218.193</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.716</v>
+      </c>
+      <c r="I68" t="n">
+        <v>14.208</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="K68" t="n">
+        <v>17.566</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>215.509</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I69" t="n">
+        <v>14.221</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="K69" t="n">
+        <v>17.646</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>5</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>167.979</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.793</v>
+      </c>
+      <c r="I70" t="n">
+        <v>12.097</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0.362</v>
+      </c>
+      <c r="K70" t="n">
+        <v>17.381</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>5</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>211.275</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I71" t="n">
+        <v>14.217</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K71" t="n">
+        <v>17.793</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>215.367</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.715</v>
+      </c>
+      <c r="I72" t="n">
+        <v>14.185</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="K72" t="n">
+        <v>17.255</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>157.763</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.787</v>
+      </c>
+      <c r="I73" t="n">
+        <v>12.14</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="K73" t="n">
+        <v>17.009</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>5</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>209.779</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I74" t="n">
+        <v>14.292</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="K74" t="n">
+        <v>17.985</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>211.64</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="I75" t="n">
+        <v>14.149</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0.123</v>
+      </c>
+      <c r="K75" t="n">
+        <v>18.343</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>168.46</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.791</v>
+      </c>
+      <c r="I76" t="n">
+        <v>12.086</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="K76" t="n">
+        <v>15.128</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>5</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>218.715</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.711</v>
+      </c>
+      <c r="I77" t="n">
+        <v>14.268</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0.118</v>
+      </c>
+      <c r="K77" t="n">
+        <v>18.947</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>additive</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>5</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>219.665</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="I78" t="n">
+        <v>14.22</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="K78" t="n">
+        <v>17.691</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WL_gnn/out_of_sample/additive/ranking_test2/results.xlsx
@@ -412,7 +412,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B19"/>
@@ -4304,6 +4304,264 @@
         <v>18.282</v>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>additive_200epochs</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>3</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>198.448</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="I91" t="n">
+        <v>12.781</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="K91" t="n">
+        <v>17.706</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>additive_200epochs</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>3</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>287.345</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.613</v>
+      </c>
+      <c r="I92" t="n">
+        <v>16.588</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="K92" t="n">
+        <v>19.482</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>additive_200epochs</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>5</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>167.498</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="I93" t="n">
+        <v>12.605</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.337</v>
+      </c>
+      <c r="K93" t="n">
+        <v>17.072</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>additive_200epochs</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>product</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>281.699</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="I94" t="n">
+        <v>16.462</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.248</v>
+      </c>
+      <c r="K94" t="n">
+        <v>18.322</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>additive_200epochs</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>3</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>223.099</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.712</v>
+      </c>
+      <c r="I95" t="n">
+        <v>14.326</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="K95" t="n">
+        <v>17.479</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>additive_200epochs</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>ranking_test2</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>3</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>355.712</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="I96" t="n">
+        <v>18.72</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.187</v>
+      </c>
+      <c r="K96" t="n">
+        <v>19.182</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
